--- a/reports/figures/All_Models_validate.xlsx
+++ b/reports/figures/All_Models_validate.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>$MSE_{train}$</t>
-  </si>
-  <si>
     <t>$MSE_{validate}$</t>
   </si>
   <si>
@@ -45,7 +42,61 @@
     <t xml:space="preserve">$MSE_{adj}^{ t-stat}$ </t>
   </si>
   <si>
-    <t>enet_exapanding</t>
+    <t>mse_oos</t>
+  </si>
+  <si>
+    <t>mse_validated</t>
+  </si>
+  <si>
+    <t>msfe_adj</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>r2_oos</t>
+  </si>
+  <si>
+    <t>start_idx</t>
+  </si>
+  <si>
+    <t>time_begin</t>
+  </si>
+  <si>
+    <t>time_diff</t>
+  </si>
+  <si>
+    <t>time_end</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>window_training</t>
+  </si>
+  <si>
+    <t>window_validation</t>
+  </si>
+  <si>
+    <t>0 days 00:00:13.479221000</t>
+  </si>
+  <si>
+    <t>expanding</t>
+  </si>
+  <si>
+    <t>enet_10cv</t>
+  </si>
+  <si>
+    <t>0 days 00:21:26.583171000</t>
+  </si>
+  <si>
+    <t>$MSE_{test}$</t>
+  </si>
+  <si>
+    <t>enet_expanding</t>
   </si>
 </sst>
 </file>
@@ -561,7 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -573,6 +624,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,26 +963,26 @@
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="7">
         <v>20.110843390666101</v>
@@ -943,9 +997,9 @@
         <v>5.3595761499434201E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8">
         <v>20.036112790160502</v>
@@ -960,26 +1014,26 @@
         <v>9.0555959894668102E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="8">
-        <v>20.791694556478401</v>
+        <v>19.974652760838602</v>
       </c>
       <c r="C5" s="8">
-        <v>1.4369424219401701</v>
+        <v>2.7309748349727898</v>
       </c>
       <c r="D5" s="8">
-        <v>19.641826879440501</v>
+        <v>15.273636853853599</v>
       </c>
       <c r="E5" s="10">
-        <v>-1.3217266483854099E-2</v>
+        <v>1.20952810204257E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3">
         <v>19.889091062777801</v>
@@ -994,7 +1048,164 @@
         <v>1.6326984384193201E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20.110843390666101</v>
+      </c>
+      <c r="B13">
+        <v>15.7344226804824</v>
+      </c>
+      <c r="C13">
+        <v>1.2795359788670799</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1951</v>
+      </c>
+      <c r="F13">
+        <v>5.3595761499434201E-3</v>
+      </c>
+      <c r="G13">
+        <v>180</v>
+      </c>
+      <c r="H13" s="11">
+        <v>43637.763206018521</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11">
+        <v>43637.763368055559</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13">
+        <v>240</v>
+      </c>
+      <c r="M13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>19.974652760838602</v>
+      </c>
+      <c r="B14">
+        <v>15.273636853853599</v>
+      </c>
+      <c r="C14">
+        <v>2.7309748349727898</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1951</v>
+      </c>
+      <c r="F14">
+        <v>1.20952810204257E-2</v>
+      </c>
+      <c r="G14">
+        <v>180</v>
+      </c>
+      <c r="H14" s="11">
+        <v>43639.604016203702</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="11">
+        <v>43639.61891203704</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <v>240</v>
+      </c>
+      <c r="M14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="12">
+        <v>20.791694556478401</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.4369424219401701</v>
+      </c>
+      <c r="D17" s="12">
+        <v>19.641826879440501</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-1.3217266483854099E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/reports/figures/All_Models_validate.xlsx
+++ b/reports/figures/All_Models_validate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -27,21 +27,9 @@
     <t>$MSE_{validate}$</t>
   </si>
   <si>
-    <t>$R^2_{OOS}</t>
-  </si>
-  <si>
     <t>enet_nocv</t>
   </si>
   <si>
-    <t>enet_5cv</t>
-  </si>
-  <si>
-    <t>enet_rolling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$MSE_{adj}^{ t-stat}$ </t>
-  </si>
-  <si>
     <t>mse_oos</t>
   </si>
   <si>
@@ -96,7 +84,25 @@
     <t>$MSE_{test}$</t>
   </si>
   <si>
-    <t>enet_expanding</t>
+    <t>$R^2_{OOS}$</t>
+  </si>
+  <si>
+    <t>enet_rolling_240_24</t>
+  </si>
+  <si>
+    <t>Enet + No CV</t>
+  </si>
+  <si>
+    <t>Enet + 5-fold CV</t>
+  </si>
+  <si>
+    <t>Enet + 10-fold CV</t>
+  </si>
+  <si>
+    <t>Enet + Expanding CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$t\_stat^{adj }(MSE_{test})$ </t>
   </si>
 </sst>
 </file>
@@ -612,13 +618,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -951,12 +956,12 @@
   <dimension ref="A2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -968,72 +973,72 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6">
         <v>20.110843390666101</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1.2795359788670799</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>15.7344226804824</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>5.3595761499434201E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7">
         <v>20.036112790160502</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2.19921764573603</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>15.380000762377501</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>9.0555959894668102E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7">
         <v>19.974652760838602</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2.7309748349727898</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>15.273636853853599</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>1.20952810204257E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>19.889091062777801</v>
@@ -1051,43 +1056,43 @@
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1101,7 +1106,7 @@
         <v>1.2795359788670799</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1951</v>
@@ -1112,17 +1117,17 @@
       <c r="G13">
         <v>180</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>43637.763206018521</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="11">
+        <v>16</v>
+      </c>
+      <c r="J13" s="10">
         <v>43637.763368055559</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L13">
         <v>240</v>
@@ -1142,7 +1147,7 @@
         <v>2.7309748349727898</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>1951</v>
@@ -1153,17 +1158,17 @@
       <c r="G14">
         <v>180</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>43639.604016203702</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="11">
+        <v>19</v>
+      </c>
+      <c r="J14" s="10">
         <v>43639.61891203704</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L14">
         <v>240</v>
@@ -1177,32 +1182,32 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="12">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11">
         <v>20.791694556478401</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>1.4369424219401701</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>19.641826879440501</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>-1.3217266483854099E-2</v>
       </c>
     </row>
